--- a/app_segmentation_lesion/predicts_RGB_VGG_VER/Results_RGB/vector_feature_all/Results_RGB_feature_vector_RGB.xlsx
+++ b/app_segmentation_lesion/predicts_RGB_VGG_VER/Results_RGB/vector_feature_all/Results_RGB_feature_vector_RGB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,28 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>30.92059680142643</v>
+        <v>13.52801006501388</v>
       </c>
       <c r="F2" t="n">
-        <v>56.40762367789139</v>
+        <v>19.20909946880516</v>
       </c>
       <c r="G2" t="n">
-        <v>64.05640479145823</v>
+        <v>17.090711833516</v>
       </c>
       <c r="H2" t="n">
-        <v>212.0923753665689</v>
+        <v>161.6603527106466</v>
       </c>
       <c r="I2" t="n">
-        <v>160.9990224828935</v>
+        <v>113.8269105160026</v>
       </c>
       <c r="J2" t="n">
-        <v>118.8264907135875</v>
+        <v>107.4761593729588</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
         <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>10.84422313015426</v>
+        <v>25.04446192629928</v>
       </c>
       <c r="F3" t="n">
-        <v>31.44846173919113</v>
+        <v>19.05985678802632</v>
       </c>
       <c r="G3" t="n">
-        <v>12.73716585594614</v>
+        <v>19.99172473968667</v>
       </c>
       <c r="H3" t="n">
-        <v>226.766598220397</v>
+        <v>167.7528583992964</v>
       </c>
       <c r="I3" t="n">
-        <v>185.2922655715263</v>
+        <v>121.7080035180299</v>
       </c>
       <c r="J3" t="n">
-        <v>135.6659822039699</v>
+        <v>111.44327176781</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>45.16566212803018</v>
+        <v>59.12416107568601</v>
       </c>
       <c r="F4" t="n">
-        <v>48.56930317898099</v>
+        <v>55.69487411353317</v>
       </c>
       <c r="G4" t="n">
-        <v>62.58883762519959</v>
+        <v>57.27640023086532</v>
       </c>
       <c r="H4" t="n">
-        <v>233.1392771084337</v>
+        <v>178.9694713328369</v>
       </c>
       <c r="I4" t="n">
-        <v>211.0183132530121</v>
+        <v>134.1489203276247</v>
       </c>
       <c r="J4" t="n">
-        <v>150.4790361445783</v>
+        <v>118.7907669396873</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>72.09603770920133</v>
+        <v>121.3276920668749</v>
       </c>
       <c r="F5" t="n">
-        <v>58.82899000776781</v>
+        <v>142.1368435414921</v>
       </c>
       <c r="G5" t="n">
-        <v>63.16644940329073</v>
+        <v>118.1012514973017</v>
       </c>
       <c r="H5" t="n">
-        <v>235.427731092437</v>
+        <v>147.5086916742909</v>
       </c>
       <c r="I5" t="n">
-        <v>216.3012605042017</v>
+        <v>104.3000914913083</v>
       </c>
       <c r="J5" t="n">
-        <v>181.6210084033613</v>
+        <v>88.18481244281793</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>58.42525427275065</v>
+        <v>88.61551632368132</v>
       </c>
       <c r="F6" t="n">
-        <v>66.40750593313048</v>
+        <v>73.87249895178402</v>
       </c>
       <c r="G6" t="n">
-        <v>112.8506343218895</v>
+        <v>52.0809665890589</v>
       </c>
       <c r="H6" t="n">
-        <v>235.6557457212714</v>
+        <v>170.5757152826239</v>
       </c>
       <c r="I6" t="n">
-        <v>217.841075794621</v>
+        <v>133.2267969295185</v>
       </c>
       <c r="J6" t="n">
-        <v>195.1070904645477</v>
+        <v>114.2693649685973</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>56.5420854403288</v>
+        <v>132.5573071865393</v>
       </c>
       <c r="F7" t="n">
-        <v>130.2709729887312</v>
+        <v>91.85096236294784</v>
       </c>
       <c r="G7" t="n">
-        <v>187.2569361772556</v>
+        <v>127.5401555934265</v>
       </c>
       <c r="H7" t="n">
-        <v>241.1952337305225</v>
+        <v>177.9463776383343</v>
       </c>
       <c r="I7" t="n">
-        <v>227.1640696608616</v>
+        <v>137.4706217912151</v>
       </c>
       <c r="J7" t="n">
-        <v>219.6585701191567</v>
+        <v>123.2401597261837</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>22.7068840741568</v>
+        <v>248.046376162669</v>
       </c>
       <c r="F8" t="n">
-        <v>80.47507198956832</v>
+        <v>230.0709987292782</v>
       </c>
       <c r="G8" t="n">
-        <v>94.30286449057948</v>
+        <v>215.1483179001789</v>
       </c>
       <c r="H8" t="n">
-        <v>229.4363636363636</v>
+        <v>161.5760598503741</v>
       </c>
       <c r="I8" t="n">
-        <v>211.97542997543</v>
+        <v>112.1645885286783</v>
       </c>
       <c r="J8" t="n">
-        <v>199.8058968058968</v>
+        <v>92.68079800498754</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>273.2740951517358</v>
+        <v>68.07829005509549</v>
       </c>
       <c r="F9" t="n">
-        <v>782.7882664314621</v>
+        <v>64.85558400637599</v>
       </c>
       <c r="G9" t="n">
-        <v>570.0391083107098</v>
+        <v>67.92388046754219</v>
       </c>
       <c r="H9" t="n">
-        <v>207.730198019802</v>
+        <v>161.9736722650931</v>
       </c>
       <c r="I9" t="n">
-        <v>176.0251060820368</v>
+        <v>108.2746255106673</v>
       </c>
       <c r="J9" t="n">
-        <v>166.6768033946252</v>
+        <v>91.03495233772129</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>399</v>
+        <v>355</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>31.32796433055692</v>
+        <v>59.86936003961718</v>
       </c>
       <c r="F10" t="n">
-        <v>92.92929806817649</v>
+        <v>119.3079339431694</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0016788732624</v>
+        <v>97.40704613951341</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7860199714693</v>
+        <v>148.0625345877145</v>
       </c>
       <c r="I10" t="n">
-        <v>191.1982881597717</v>
+        <v>90.1737686773658</v>
       </c>
       <c r="J10" t="n">
-        <v>167.2639087018545</v>
+        <v>71.91366906474821</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>443</v>
+        <v>400</v>
       </c>
       <c r="D11" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>270.4042094361504</v>
+        <v>76.92416915484003</v>
       </c>
       <c r="F11" t="n">
-        <v>281.3249838513966</v>
+        <v>99.42909248365382</v>
       </c>
       <c r="G11" t="n">
-        <v>332.6234970731285</v>
+        <v>69.71141589515722</v>
       </c>
       <c r="H11" t="n">
-        <v>168.9467649467649</v>
+        <v>149.5494748479823</v>
       </c>
       <c r="I11" t="n">
-        <v>131.465601965602</v>
+        <v>97.91597567716971</v>
       </c>
       <c r="J11" t="n">
-        <v>94.24570024570025</v>
+        <v>82.30569375345495</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>381</v>
+        <v>248</v>
       </c>
       <c r="D12" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E12" t="n">
-        <v>17.47520570102132</v>
+        <v>80.19281811182377</v>
       </c>
       <c r="F12" t="n">
-        <v>61.30920255951336</v>
+        <v>74.67562809555014</v>
       </c>
       <c r="G12" t="n">
-        <v>62.4674940093627</v>
+        <v>72.08230739263047</v>
       </c>
       <c r="H12" t="n">
-        <v>221.9010543390106</v>
+        <v>182.0698951572641</v>
       </c>
       <c r="I12" t="n">
-        <v>209.720600162206</v>
+        <v>147.1957064403395</v>
       </c>
       <c r="J12" t="n">
-        <v>197.4614760746148</v>
+        <v>122.4692960559161</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>459</v>
+        <v>58</v>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>120.683139769499</v>
+        <v>68.25073177622791</v>
       </c>
       <c r="F13" t="n">
-        <v>185.0614745084904</v>
+        <v>87.35822616245174</v>
       </c>
       <c r="G13" t="n">
-        <v>140.2365702479339</v>
+        <v>74.09583983967366</v>
       </c>
       <c r="H13" t="n">
-        <v>136.5099431818182</v>
+        <v>175.5230574857865</v>
       </c>
       <c r="I13" t="n">
-        <v>88.34588068181819</v>
+        <v>134.3158559696778</v>
       </c>
       <c r="J13" t="n">
-        <v>59.82954545454545</v>
+        <v>124.5047378395452</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>421</v>
+        <v>193</v>
       </c>
       <c r="D14" t="n">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E14" t="n">
-        <v>72.85683008188666</v>
+        <v>139.191001712628</v>
       </c>
       <c r="F14" t="n">
-        <v>125.7317463644772</v>
+        <v>226.8410727279082</v>
       </c>
       <c r="G14" t="n">
-        <v>251.3697267379012</v>
+        <v>174.3710874075769</v>
       </c>
       <c r="H14" t="n">
-        <v>206.7348976535197</v>
+        <v>119.9509803921569</v>
       </c>
       <c r="I14" t="n">
-        <v>189.0124812780829</v>
+        <v>79.64260249554367</v>
       </c>
       <c r="J14" t="n">
-        <v>157.935097353969</v>
+        <v>68.42602495543672</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>32</v>
+        <v>395</v>
       </c>
       <c r="D15" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E15" t="n">
-        <v>80.30637511111112</v>
+        <v>20.26713182475183</v>
       </c>
       <c r="F15" t="n">
-        <v>74.08832098765431</v>
+        <v>33.90632335474942</v>
       </c>
       <c r="G15" t="n">
-        <v>78.33568711111113</v>
+        <v>30.42806805346434</v>
       </c>
       <c r="H15" t="n">
-        <v>220.144</v>
+        <v>137.6019367991845</v>
       </c>
       <c r="I15" t="n">
-        <v>188.0111111111111</v>
+        <v>85.1788990825688</v>
       </c>
       <c r="J15" t="n">
-        <v>128.7013333333333</v>
+        <v>73.23037716615698</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="D16" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" t="n">
-        <v>544.0016280367695</v>
+        <v>269.2687045375126</v>
       </c>
       <c r="F16" t="n">
-        <v>1234.886320286289</v>
+        <v>210.078596616946</v>
       </c>
       <c r="G16" t="n">
-        <v>934.5184303918828</v>
+        <v>262.9453499433189</v>
       </c>
       <c r="H16" t="n">
-        <v>200.318615330272</v>
+        <v>113.8094251683066</v>
       </c>
       <c r="I16" t="n">
-        <v>149.8890851289297</v>
+        <v>54.4774728120145</v>
       </c>
       <c r="J16" t="n">
-        <v>151.0342635111268</v>
+        <v>48.63127912998446</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" t="n">
-        <v>109.6534735563667</v>
+        <v>89.19877087633701</v>
       </c>
       <c r="F17" t="n">
-        <v>126.3282586673819</v>
+        <v>155.6307736643165</v>
       </c>
       <c r="G17" t="n">
-        <v>111.23156407048</v>
+        <v>102.4392101745934</v>
       </c>
       <c r="H17" t="n">
-        <v>150.1365227537923</v>
+        <v>147.8835616438356</v>
       </c>
       <c r="I17" t="n">
-        <v>71.01458576429405</v>
+        <v>111.0479452054795</v>
       </c>
       <c r="J17" t="n">
-        <v>77.41773628938157</v>
+        <v>94.18003913894324</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D18" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E18" t="n">
-        <v>77.65845606116146</v>
+        <v>118.9064357711857</v>
       </c>
       <c r="F18" t="n">
-        <v>170.8070559616535</v>
+        <v>137.3941687005973</v>
       </c>
       <c r="G18" t="n">
-        <v>200.7983142742826</v>
+        <v>144.7646382083113</v>
       </c>
       <c r="H18" t="n">
-        <v>222.112600536193</v>
+        <v>126.6183465458664</v>
       </c>
       <c r="I18" t="n">
-        <v>195.4512957998213</v>
+        <v>77.30464326160815</v>
       </c>
       <c r="J18" t="n">
-        <v>167.2064343163539</v>
+        <v>68.74631936579841</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>317</v>
+        <v>167</v>
       </c>
       <c r="D19" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E19" t="n">
-        <v>79.62081065866016</v>
+        <v>518.3603845637197</v>
       </c>
       <c r="F19" t="n">
-        <v>93.68142756614748</v>
+        <v>427.4721973752059</v>
       </c>
       <c r="G19" t="n">
-        <v>97.18653546631637</v>
+        <v>482.7294800614816</v>
       </c>
       <c r="H19" t="n">
-        <v>144.4794520547945</v>
+        <v>81.53658536585365</v>
       </c>
       <c r="I19" t="n">
-        <v>65.90890410958905</v>
+        <v>28.2816679779701</v>
       </c>
       <c r="J19" t="n">
-        <v>71.02123287671233</v>
+        <v>27.17702596380802</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="D20" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E20" t="n">
-        <v>282.1285368764431</v>
+        <v>131.1843687216327</v>
       </c>
       <c r="F20" t="n">
-        <v>244.1254644117329</v>
+        <v>122.8462917329677</v>
       </c>
       <c r="G20" t="n">
-        <v>254.145927711075</v>
+        <v>126.6315033862951</v>
       </c>
       <c r="H20" t="n">
-        <v>162.0882949932341</v>
+        <v>185.92348565356</v>
       </c>
       <c r="I20" t="n">
-        <v>76.63531799729364</v>
+        <v>156.3278427205101</v>
       </c>
       <c r="J20" t="n">
-        <v>84.07273342354533</v>
+        <v>132.9835281615303</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="D21" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E21" t="n">
-        <v>272.9689303727778</v>
+        <v>71.70082112476371</v>
       </c>
       <c r="F21" t="n">
-        <v>220.5211696591898</v>
+        <v>83.03320927851293</v>
       </c>
       <c r="G21" t="n">
-        <v>279.9053492460973</v>
+        <v>75.30808177772528</v>
       </c>
       <c r="H21" t="n">
-        <v>178.1879562043796</v>
+        <v>161.9836956521739</v>
       </c>
       <c r="I21" t="n">
-        <v>99.48905109489051</v>
+        <v>121.6684782608696</v>
       </c>
       <c r="J21" t="n">
-        <v>107.9416058394161</v>
+        <v>108.9103260869565</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>139</v>
+        <v>350</v>
       </c>
       <c r="D22" t="n">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E22" t="n">
-        <v>99.85433120288633</v>
+        <v>65.20150910459719</v>
       </c>
       <c r="F22" t="n">
-        <v>50.87702015349137</v>
+        <v>71.0059875494193</v>
       </c>
       <c r="G22" t="n">
-        <v>55.27335768572703</v>
+        <v>68.93537849237028</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3389084507042</v>
+        <v>155.1135014836795</v>
       </c>
       <c r="I22" t="n">
-        <v>54.90757042253521</v>
+        <v>104.8278931750742</v>
       </c>
       <c r="J22" t="n">
-        <v>58.52024647887324</v>
+        <v>91.81305637982196</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>402</v>
+        <v>325</v>
       </c>
       <c r="D23" t="n">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="E23" t="n">
-        <v>720.7504852834877</v>
+        <v>149.6210563579944</v>
       </c>
       <c r="F23" t="n">
-        <v>1531.997619463474</v>
+        <v>191.579408553558</v>
       </c>
       <c r="G23" t="n">
-        <v>1109.450783916716</v>
+        <v>191.1699668390243</v>
       </c>
       <c r="H23" t="n">
-        <v>186.1906510034263</v>
+        <v>174.8785982478097</v>
       </c>
       <c r="I23" t="n">
-        <v>141.6872246696035</v>
+        <v>137.3892365456821</v>
       </c>
       <c r="J23" t="n">
-        <v>137.6079295154185</v>
+        <v>120.4067584480601</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>363</v>
+        <v>211</v>
       </c>
       <c r="D24" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E24" t="n">
-        <v>93.96912727242163</v>
+        <v>92.84393852341282</v>
       </c>
       <c r="F24" t="n">
-        <v>120.8800245045601</v>
+        <v>105.6188111454244</v>
       </c>
       <c r="G24" t="n">
-        <v>129.490408875434</v>
+        <v>87.63025272112101</v>
       </c>
       <c r="H24" t="n">
-        <v>135.5799825174825</v>
+        <v>79.55932203389831</v>
       </c>
       <c r="I24" t="n">
-        <v>58.29676573426573</v>
+        <v>19.55155367231638</v>
       </c>
       <c r="J24" t="n">
-        <v>63.81424825174825</v>
+        <v>20.15395480225989</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D25" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E25" t="n">
-        <v>294.2780288086099</v>
+        <v>85.51817281759563</v>
       </c>
       <c r="F25" t="n">
-        <v>682.7205209676722</v>
+        <v>91.05115688356378</v>
       </c>
       <c r="G25" t="n">
-        <v>606.0751170417344</v>
+        <v>86.06090640306282</v>
       </c>
       <c r="H25" t="n">
-        <v>147.2220893141946</v>
+        <v>116.5738188976378</v>
       </c>
       <c r="I25" t="n">
-        <v>73.59768740031897</v>
+        <v>51.75492125984252</v>
       </c>
       <c r="J25" t="n">
-        <v>74.62081339712918</v>
+        <v>44.26082677165354</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>322</v>
+        <v>47</v>
       </c>
       <c r="D26" t="n">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E26" t="n">
-        <v>51.61399536029402</v>
+        <v>80.00992544009401</v>
       </c>
       <c r="F26" t="n">
-        <v>46.95825567907832</v>
+        <v>103.5841926358287</v>
       </c>
       <c r="G26" t="n">
-        <v>45.32015844726244</v>
+        <v>87.73039906043978</v>
       </c>
       <c r="H26" t="n">
-        <v>133.8772563176895</v>
+        <v>149.8504672897196</v>
       </c>
       <c r="I26" t="n">
-        <v>44.6173285198556</v>
+        <v>112.2786745964316</v>
       </c>
       <c r="J26" t="n">
-        <v>53.25361010830325</v>
+        <v>95.79949022939677</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="D27" t="n">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="E27" t="n">
-        <v>223.9628011974544</v>
+        <v>103.5076442561765</v>
       </c>
       <c r="F27" t="n">
-        <v>194.1609627216315</v>
+        <v>102.8935231059438</v>
       </c>
       <c r="G27" t="n">
-        <v>202.8727185255186</v>
+        <v>104.7815263923753</v>
       </c>
       <c r="H27" t="n">
-        <v>203.1526992287918</v>
+        <v>101.5876436781609</v>
       </c>
       <c r="I27" t="n">
-        <v>169.1377892030848</v>
+        <v>30.01245210727969</v>
       </c>
       <c r="J27" t="n">
-        <v>123.3352185089974</v>
+        <v>29.87021072796935</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>451</v>
+        <v>120</v>
       </c>
       <c r="D28" t="n">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="E28" t="n">
-        <v>494.6165694874248</v>
+        <v>68.85590283829443</v>
       </c>
       <c r="F28" t="n">
-        <v>569.3661243048022</v>
+        <v>66.47175087335999</v>
       </c>
       <c r="G28" t="n">
-        <v>657.6598033160416</v>
+        <v>77.30577613979905</v>
       </c>
       <c r="H28" t="n">
-        <v>172.7432915921288</v>
+        <v>123.9146810146042</v>
       </c>
       <c r="I28" t="n">
-        <v>140.3822301729278</v>
+        <v>48.44811683320523</v>
       </c>
       <c r="J28" t="n">
-        <v>94.7638640429338</v>
+        <v>42.42966948501153</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="D29" t="n">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E29" t="n">
-        <v>211.4029944140899</v>
+        <v>54.84072062559074</v>
       </c>
       <c r="F29" t="n">
-        <v>284.1586871585117</v>
+        <v>59.05582282313328</v>
       </c>
       <c r="G29" t="n">
-        <v>318.0635588046763</v>
+        <v>44.76798610290643</v>
       </c>
       <c r="H29" t="n">
-        <v>195.6629834254144</v>
+        <v>92.51766304347827</v>
       </c>
       <c r="I29" t="n">
-        <v>153.6491712707182</v>
+        <v>26.88994565217391</v>
       </c>
       <c r="J29" t="n">
-        <v>138.732044198895</v>
+        <v>25.12092391304348</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="D30" t="n">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E30" t="n">
-        <v>550.5620595719645</v>
+        <v>270.3552216857818</v>
       </c>
       <c r="F30" t="n">
-        <v>544.7144690387859</v>
+        <v>518.7769649181987</v>
       </c>
       <c r="G30" t="n">
-        <v>534.6060397665096</v>
+        <v>361.4250611401586</v>
       </c>
       <c r="H30" t="n">
-        <v>166.474001507159</v>
+        <v>128.3652597402597</v>
       </c>
       <c r="I30" t="n">
-        <v>80.74189902034665</v>
+        <v>80.41558441558442</v>
       </c>
       <c r="J30" t="n">
-        <v>90.31273549359457</v>
+        <v>66.30194805194805</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>146</v>
+        <v>406</v>
       </c>
       <c r="D31" t="n">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="E31" t="n">
-        <v>83.80585919521522</v>
+        <v>30.48235625722551</v>
       </c>
       <c r="F31" t="n">
-        <v>124.1406782049653</v>
+        <v>69.95047817520583</v>
       </c>
       <c r="G31" t="n">
-        <v>99.03088804196891</v>
+        <v>40.21675354496866</v>
       </c>
       <c r="H31" t="n">
-        <v>169.4352895452779</v>
+        <v>139.28184110971</v>
       </c>
       <c r="I31" t="n">
-        <v>70.47765254566654</v>
+        <v>86.13177805800757</v>
       </c>
       <c r="J31" t="n">
-        <v>74.5328410415857</v>
+        <v>78.47856242118537</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="E32" t="n">
-        <v>56.98013141405679</v>
+        <v>89.58120092310554</v>
       </c>
       <c r="F32" t="n">
-        <v>38.96697591941353</v>
+        <v>107.2207356351378</v>
       </c>
       <c r="G32" t="n">
-        <v>32.97342206982161</v>
+        <v>112.6252335997325</v>
       </c>
       <c r="H32" t="n">
-        <v>163.8281068524971</v>
+        <v>164.5211623499684</v>
       </c>
       <c r="I32" t="n">
-        <v>70.49554781262098</v>
+        <v>142.4232469993683</v>
       </c>
       <c r="J32" t="n">
-        <v>69.87301587301587</v>
+        <v>120.4384080859128</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>191</v>
+        <v>353</v>
       </c>
       <c r="D33" t="n">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E33" t="n">
-        <v>175.3621974340484</v>
+        <v>107.5033892333439</v>
       </c>
       <c r="F33" t="n">
-        <v>186.9989692626645</v>
+        <v>130.8440079024667</v>
       </c>
       <c r="G33" t="n">
-        <v>180.0482439456764</v>
+        <v>111.7220146502962</v>
       </c>
       <c r="H33" t="n">
-        <v>161.318992248062</v>
+        <v>180.7299412915851</v>
       </c>
       <c r="I33" t="n">
-        <v>63.32209302325582</v>
+        <v>148.1208414872798</v>
       </c>
       <c r="J33" t="n">
-        <v>68.81899224806202</v>
+        <v>126.291095890411</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="D34" t="n">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E34" t="n">
-        <v>606.7668969645321</v>
+        <v>223.1528272018888</v>
       </c>
       <c r="F34" t="n">
-        <v>576.1964937910884</v>
+        <v>247.9052798510925</v>
       </c>
       <c r="G34" t="n">
-        <v>512.9957434912391</v>
+        <v>253.0826114201456</v>
       </c>
       <c r="H34" t="n">
-        <v>168.7364864864865</v>
+        <v>112.0919952210275</v>
       </c>
       <c r="I34" t="n">
-        <v>75.04954954954955</v>
+        <v>40.60095579450418</v>
       </c>
       <c r="J34" t="n">
-        <v>82.27627627627628</v>
+        <v>41.08363201911589</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="D35" t="n">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E35" t="n">
-        <v>61.08991458269807</v>
+        <v>108.7752346294096</v>
       </c>
       <c r="F35" t="n">
-        <v>77.83754794832504</v>
+        <v>143.0915377037195</v>
       </c>
       <c r="G35" t="n">
-        <v>86.65729250697657</v>
+        <v>141.8355698450497</v>
       </c>
       <c r="H35" t="n">
-        <v>141.814931237721</v>
+        <v>164.6529060293319</v>
       </c>
       <c r="I35" t="n">
-        <v>58.14891944990177</v>
+        <v>126.254752851711</v>
       </c>
       <c r="J35" t="n">
-        <v>63.63064833005894</v>
+        <v>106.7017925040739</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>308</v>
+        <v>62</v>
       </c>
       <c r="D36" t="n">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E36" t="n">
-        <v>23.48975849650266</v>
+        <v>296.1213482268001</v>
       </c>
       <c r="F36" t="n">
-        <v>21.35243212670548</v>
+        <v>214.0459011246901</v>
       </c>
       <c r="G36" t="n">
-        <v>27.46627178010505</v>
+        <v>243.8462197122068</v>
       </c>
       <c r="H36" t="n">
-        <v>141.2499022291748</v>
+        <v>135.8821822402786</v>
       </c>
       <c r="I36" t="n">
-        <v>43.8420023464998</v>
+        <v>80.94660475914104</v>
       </c>
       <c r="J36" t="n">
-        <v>49.91669925694173</v>
+        <v>69.32675565873477</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>63</v>
+        <v>274</v>
       </c>
       <c r="D37" t="n">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="E37" t="n">
-        <v>74.02556231679293</v>
+        <v>59.81254044082457</v>
       </c>
       <c r="F37" t="n">
-        <v>61.50405927637748</v>
+        <v>51.73125399187268</v>
       </c>
       <c r="G37" t="n">
-        <v>69.84945484088489</v>
+        <v>51.28776951122946</v>
       </c>
       <c r="H37" t="n">
-        <v>144.1591855622397</v>
+        <v>108.776401179941</v>
       </c>
       <c r="I37" t="n">
-        <v>59.31004164738547</v>
+        <v>34.67728613569322</v>
       </c>
       <c r="J37" t="n">
-        <v>58.91577973160574</v>
+        <v>31.64365781710914</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>433</v>
+        <v>121</v>
       </c>
       <c r="D38" t="n">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="E38" t="n">
-        <v>567.5038808901711</v>
+        <v>62.4465597643844</v>
       </c>
       <c r="F38" t="n">
-        <v>784.2600257968746</v>
+        <v>58.07894051775209</v>
       </c>
       <c r="G38" t="n">
-        <v>1248.40129357506</v>
+        <v>52.56311202858233</v>
       </c>
       <c r="H38" t="n">
-        <v>192.4392589953687</v>
+        <v>100.658956109134</v>
       </c>
       <c r="I38" t="n">
-        <v>165.745992162451</v>
+        <v>28.04151838671412</v>
       </c>
       <c r="J38" t="n">
-        <v>142.251514071963</v>
+        <v>22.38552787663108</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>232</v>
+        <v>339</v>
       </c>
       <c r="D39" t="n">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="E39" t="n">
-        <v>176.9688836573919</v>
+        <v>195.3157618287046</v>
       </c>
       <c r="F39" t="n">
-        <v>195.4517180134055</v>
+        <v>180.9621241725291</v>
       </c>
       <c r="G39" t="n">
-        <v>179.5427464722079</v>
+        <v>173.8291373058434</v>
       </c>
       <c r="H39" t="n">
-        <v>167.9589117157135</v>
+        <v>111.7709772951629</v>
       </c>
       <c r="I39" t="n">
-        <v>71.25319267073849</v>
+        <v>59.44916090819348</v>
       </c>
       <c r="J39" t="n">
-        <v>72.9200444197668</v>
+        <v>45.61895360315894</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>9</v>
+        <v>309</v>
       </c>
       <c r="D40" t="n">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="E40" t="n">
-        <v>204.2636873025985</v>
+        <v>61.26377154516501</v>
       </c>
       <c r="F40" t="n">
-        <v>232.5928712583384</v>
+        <v>56.36983312543668</v>
       </c>
       <c r="G40" t="n">
-        <v>229.1060109540508</v>
+        <v>47.84660037788132</v>
       </c>
       <c r="H40" t="n">
-        <v>164.6445366528354</v>
+        <v>112.1076604554865</v>
       </c>
       <c r="I40" t="n">
-        <v>124.3554633471646</v>
+        <v>41.88819875776397</v>
       </c>
       <c r="J40" t="n">
-        <v>84.02213001383126</v>
+        <v>38.01380262249828</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>374</v>
+        <v>22</v>
       </c>
       <c r="D41" t="n">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="E41" t="n">
-        <v>40.53671033023515</v>
+        <v>233.5543553275122</v>
       </c>
       <c r="F41" t="n">
-        <v>38.87353590940302</v>
+        <v>188.0280348504311</v>
       </c>
       <c r="G41" t="n">
-        <v>28.41191682049777</v>
+        <v>252.6286708760379</v>
       </c>
       <c r="H41" t="n">
-        <v>133.6549684542587</v>
+        <v>157.3768115942029</v>
       </c>
       <c r="I41" t="n">
-        <v>50.09463722397476</v>
+        <v>123.2325741890959</v>
       </c>
       <c r="J41" t="n">
-        <v>51.98777602523659</v>
+        <v>110.4699792960663</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="D42" t="n">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E42" t="n">
-        <v>75.05827464908751</v>
+        <v>191.668598805526</v>
       </c>
       <c r="F42" t="n">
-        <v>74.16221545052611</v>
+        <v>186.3119429181162</v>
       </c>
       <c r="G42" t="n">
-        <v>80.06265277029786</v>
+        <v>170.6449556596754</v>
       </c>
       <c r="H42" t="n">
-        <v>161.6801566579634</v>
+        <v>119.1322869955157</v>
       </c>
       <c r="I42" t="n">
-        <v>65.69538729329852</v>
+        <v>41.5554932735426</v>
       </c>
       <c r="J42" t="n">
-        <v>67.25805047867711</v>
+        <v>39.82062780269058</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="D43" t="n">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="E43" t="n">
-        <v>140.7650640895621</v>
+        <v>219.9027654897245</v>
       </c>
       <c r="F43" t="n">
-        <v>134.7630585617712</v>
+        <v>186.4815843497162</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5862933486059</v>
+        <v>197.9577253314078</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7112203844435</v>
+        <v>123.7511773940345</v>
       </c>
       <c r="I43" t="n">
-        <v>54.39159588734913</v>
+        <v>59.81318681318681</v>
       </c>
       <c r="J43" t="n">
-        <v>58.96066160035762</v>
+        <v>51.12166405023548</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="D44" t="n">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="E44" t="n">
-        <v>152.4123601346982</v>
+        <v>110.5793394477108</v>
       </c>
       <c r="F44" t="n">
-        <v>133.4511990783427</v>
+        <v>84.57136063543811</v>
       </c>
       <c r="G44" t="n">
-        <v>259.6601279958844</v>
+        <v>87.83119262323066</v>
       </c>
       <c r="H44" t="n">
-        <v>194.5222072678331</v>
+        <v>112.8865692414753</v>
       </c>
       <c r="I44" t="n">
-        <v>161.2193808882907</v>
+        <v>36.37021572720946</v>
       </c>
       <c r="J44" t="n">
-        <v>136.371467025572</v>
+        <v>34.56367432150313</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>148</v>
+        <v>359</v>
       </c>
       <c r="D45" t="n">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="E45" t="n">
-        <v>56.01319484711092</v>
+        <v>121.1946221842731</v>
       </c>
       <c r="F45" t="n">
-        <v>58.67748460330877</v>
+        <v>104.5429105526508</v>
       </c>
       <c r="G45" t="n">
-        <v>59.85257524693089</v>
+        <v>111.4690009440415</v>
       </c>
       <c r="H45" t="n">
-        <v>165.2832167832168</v>
+        <v>97.91504329004329</v>
       </c>
       <c r="I45" t="n">
-        <v>68.39010989010988</v>
+        <v>37.48051948051948</v>
       </c>
       <c r="J45" t="n">
-        <v>70.0084915084915</v>
+        <v>28.67911255411255</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>323</v>
+        <v>392</v>
       </c>
       <c r="D46" t="n">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="E46" t="n">
-        <v>18.07357295485597</v>
+        <v>81.42098269232865</v>
       </c>
       <c r="F46" t="n">
-        <v>10.62427387857856</v>
+        <v>113.2300806263245</v>
       </c>
       <c r="G46" t="n">
-        <v>11.05496356642292</v>
+        <v>123.349323051117</v>
       </c>
       <c r="H46" t="n">
-        <v>136.9958909226746</v>
+        <v>136.5709570957096</v>
       </c>
       <c r="I46" t="n">
-        <v>38.25700410907733</v>
+        <v>96.18866886688669</v>
       </c>
       <c r="J46" t="n">
-        <v>41.65595816212178</v>
+        <v>69.8052805280528</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>97</v>
+        <v>318</v>
       </c>
       <c r="D47" t="n">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="E47" t="n">
-        <v>196.4523866567619</v>
+        <v>25.22266802790444</v>
       </c>
       <c r="F47" t="n">
-        <v>587.3340603572593</v>
+        <v>26.17959090563881</v>
       </c>
       <c r="G47" t="n">
-        <v>705.9244661658805</v>
+        <v>23.56756132646138</v>
       </c>
       <c r="H47" t="n">
-        <v>162.8644696639022</v>
+        <v>100.4817363684489</v>
       </c>
       <c r="I47" t="n">
-        <v>74.36075949367088</v>
+        <v>29.0788777130757</v>
       </c>
       <c r="J47" t="n">
-        <v>75.80619816673942</v>
+        <v>30.67390153520381</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>456</v>
+        <v>206</v>
       </c>
       <c r="D48" t="n">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="E48" t="n">
-        <v>133.1928344705958</v>
+        <v>131.1571426666667</v>
       </c>
       <c r="F48" t="n">
-        <v>199.896311558085</v>
+        <v>105.7991195555555</v>
       </c>
       <c r="G48" t="n">
-        <v>348.1126809805401</v>
+        <v>117.408016</v>
       </c>
       <c r="H48" t="n">
-        <v>174.5694991558807</v>
+        <v>125.782</v>
       </c>
       <c r="I48" t="n">
-        <v>138.2898142937535</v>
+        <v>44.53933333333333</v>
       </c>
       <c r="J48" t="n">
-        <v>90.32245357343838</v>
+        <v>42.228</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D49" t="n">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="E49" t="n">
-        <v>45.18942184963276</v>
+        <v>71.26465107517338</v>
       </c>
       <c r="F49" t="n">
-        <v>58.31768731211056</v>
+        <v>76.96752457374562</v>
       </c>
       <c r="G49" t="n">
-        <v>88.70931787623682</v>
+        <v>74.90166300528134</v>
       </c>
       <c r="H49" t="n">
-        <v>209.9000489955904</v>
+        <v>141.8649592549476</v>
       </c>
       <c r="I49" t="n">
-        <v>179.9828515433611</v>
+        <v>95.82305005820722</v>
       </c>
       <c r="J49" t="n">
-        <v>174.0117589416952</v>
+        <v>87.20605355064028</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="D50" t="n">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="E50" t="n">
-        <v>84.42687874163182</v>
+        <v>69.67487295236141</v>
       </c>
       <c r="F50" t="n">
-        <v>88.15935944098412</v>
+        <v>62.51454601415821</v>
       </c>
       <c r="G50" t="n">
-        <v>85.7915883373616</v>
+        <v>65.75206593481755</v>
       </c>
       <c r="H50" t="n">
-        <v>163.7015270708006</v>
+        <v>112.1450292397661</v>
       </c>
       <c r="I50" t="n">
-        <v>66.45765849143915</v>
+        <v>48.61754385964912</v>
       </c>
       <c r="J50" t="n">
-        <v>67.7200370198982</v>
+        <v>41.45497076023392</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>375</v>
+        <v>123</v>
       </c>
       <c r="D51" t="n">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="E51" t="n">
-        <v>48.60698614905457</v>
+        <v>68.0950983506896</v>
       </c>
       <c r="F51" t="n">
-        <v>37.88021054393505</v>
+        <v>68.71657981804614</v>
       </c>
       <c r="G51" t="n">
-        <v>44.50224323144889</v>
+        <v>68.74468574028928</v>
       </c>
       <c r="H51" t="n">
-        <v>138.2383863080685</v>
+        <v>100.2404775440591</v>
       </c>
       <c r="I51" t="n">
-        <v>59.58190709046455</v>
+        <v>29.61000568504832</v>
       </c>
       <c r="J51" t="n">
-        <v>64.92053789731051</v>
+        <v>23.29789653212052</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="D52" t="n">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="E52" t="n">
-        <v>218.5786902494331</v>
+        <v>50.73648474339797</v>
       </c>
       <c r="F52" t="n">
-        <v>194.0511154195011</v>
+        <v>48.64559228917699</v>
       </c>
       <c r="G52" t="n">
-        <v>208.6016154195011</v>
+        <v>49.48915286386954</v>
       </c>
       <c r="H52" t="n">
-        <v>159.0838095238095</v>
+        <v>105.6380618797431</v>
       </c>
       <c r="I52" t="n">
-        <v>64.02809523809523</v>
+        <v>29.18096906012843</v>
       </c>
       <c r="J52" t="n">
-        <v>64.15523809523809</v>
+        <v>24.79918272037362</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="D53" t="n">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="E53" t="n">
-        <v>112.7137905515902</v>
+        <v>67.64685574408509</v>
       </c>
       <c r="F53" t="n">
-        <v>122.972774032136</v>
+        <v>64.06101524183536</v>
       </c>
       <c r="G53" t="n">
-        <v>129.9770021761838</v>
+        <v>65.00272574382095</v>
       </c>
       <c r="H53" t="n">
-        <v>153.4160139251523</v>
+        <v>109.2053412462908</v>
       </c>
       <c r="I53" t="n">
-        <v>55.60443864229765</v>
+        <v>31.74896142433234</v>
       </c>
       <c r="J53" t="n">
-        <v>56.16927763272411</v>
+        <v>29.65341246290801</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>331</v>
+        <v>16</v>
       </c>
       <c r="D54" t="n">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="E54" t="n">
-        <v>13.11945220066732</v>
+        <v>302.1097377849026</v>
       </c>
       <c r="F54" t="n">
-        <v>23.85434368868512</v>
+        <v>318.9178827567561</v>
       </c>
       <c r="G54" t="n">
-        <v>16.85227968980757</v>
+        <v>316.70869588456</v>
       </c>
       <c r="H54" t="n">
-        <v>138.0741807706158</v>
+        <v>173.2841973766396</v>
       </c>
       <c r="I54" t="n">
-        <v>47.65502340655384</v>
+        <v>132.8575890068707</v>
       </c>
       <c r="J54" t="n">
-        <v>47.66042491897731</v>
+        <v>126.3204247345409</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>272</v>
+        <v>73</v>
       </c>
       <c r="D55" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="E55" t="n">
-        <v>56.23199701113008</v>
+        <v>903.9782429650647</v>
       </c>
       <c r="F55" t="n">
-        <v>40.97065092329169</v>
+        <v>817.0042878755562</v>
       </c>
       <c r="G55" t="n">
-        <v>40.01695909583881</v>
+        <v>787.7882220822316</v>
       </c>
       <c r="H55" t="n">
-        <v>146.3658247829518</v>
+        <v>142.7955456570156</v>
       </c>
       <c r="I55" t="n">
-        <v>45.3034727703236</v>
+        <v>79.23251670378619</v>
       </c>
       <c r="J55" t="n">
-        <v>47.96014206787687</v>
+        <v>72.87795100222718</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>419</v>
+        <v>240</v>
       </c>
       <c r="D56" t="n">
-        <v>260</v>
+        <v>179</v>
       </c>
       <c r="E56" t="n">
-        <v>63.84322597942279</v>
+        <v>108.3685765049133</v>
       </c>
       <c r="F56" t="n">
-        <v>76.78553815931018</v>
+        <v>116.0743913362293</v>
       </c>
       <c r="G56" t="n">
-        <v>206.083871962074</v>
+        <v>122.4097945440707</v>
       </c>
       <c r="H56" t="n">
-        <v>194.2246769487286</v>
+        <v>121.5976368159204</v>
       </c>
       <c r="I56" t="n">
-        <v>169.8891204668612</v>
+        <v>37.05783582089552</v>
       </c>
       <c r="J56" t="n">
-        <v>146.3309712380158</v>
+        <v>35.75559701492537</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>28</v>
+        <v>391</v>
       </c>
       <c r="D57" t="n">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="E57" t="n">
-        <v>299.0130550235409</v>
+        <v>135.6693157617318</v>
       </c>
       <c r="F57" t="n">
-        <v>373.1168616785934</v>
+        <v>180.5046093732686</v>
       </c>
       <c r="G57" t="n">
-        <v>423.0949159236496</v>
+        <v>153.6116784984415</v>
       </c>
       <c r="H57" t="n">
-        <v>136.562774122807</v>
+        <v>168.0329597890573</v>
       </c>
       <c r="I57" t="n">
-        <v>91.96820175438596</v>
+        <v>136.7205009887937</v>
       </c>
       <c r="J57" t="n">
-        <v>53.19572368421053</v>
+        <v>114.4851680949242</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>106</v>
+        <v>336</v>
       </c>
       <c r="D58" t="n">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="E58" t="n">
-        <v>19.64002980438267</v>
+        <v>143.367398411748</v>
       </c>
       <c r="F58" t="n">
-        <v>133.0955652268297</v>
+        <v>219.9727160942995</v>
       </c>
       <c r="G58" t="n">
-        <v>45.16796870926087</v>
+        <v>156.2992146550738</v>
       </c>
       <c r="H58" t="n">
-        <v>209.8147917961467</v>
+        <v>158.7652035959809</v>
       </c>
       <c r="I58" t="n">
-        <v>173.6258545680547</v>
+        <v>116.1586462189318</v>
       </c>
       <c r="J58" t="n">
-        <v>170.2784338098198</v>
+        <v>95.65415124272872</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>366</v>
+        <v>152</v>
       </c>
       <c r="D59" t="n">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="E59" t="n">
-        <v>42.0490807858997</v>
+        <v>120.9038211894844</v>
       </c>
       <c r="F59" t="n">
-        <v>133.9425549329266</v>
+        <v>116.3347199935979</v>
       </c>
       <c r="G59" t="n">
-        <v>115.9255750341303</v>
+        <v>113.7525018312737</v>
       </c>
       <c r="H59" t="n">
-        <v>141.4805781391147</v>
+        <v>123.5751854349292</v>
       </c>
       <c r="I59" t="n">
-        <v>79.62149954832881</v>
+        <v>54.07619689817937</v>
       </c>
       <c r="J59" t="n">
-        <v>82.53206865401987</v>
+        <v>46.96291301416048</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="D60" t="n">
-        <v>277</v>
+        <v>197</v>
       </c>
       <c r="E60" t="n">
-        <v>12.31708848245181</v>
+        <v>53.73429011042877</v>
       </c>
       <c r="F60" t="n">
-        <v>46.06968716898524</v>
+        <v>84.6384838018122</v>
       </c>
       <c r="G60" t="n">
-        <v>41.27089806510839</v>
+        <v>57.23179453196747</v>
       </c>
       <c r="H60" t="n">
-        <v>144.6882352941176</v>
+        <v>116.6457564575646</v>
       </c>
       <c r="I60" t="n">
-        <v>52.15630252100841</v>
+        <v>52.84747847478475</v>
       </c>
       <c r="J60" t="n">
-        <v>49.77521008403362</v>
+        <v>49.14268142681427</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>453</v>
+        <v>106</v>
       </c>
       <c r="D61" t="n">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="E61" t="n">
-        <v>476.9266269388514</v>
+        <v>646.9255953570982</v>
       </c>
       <c r="F61" t="n">
-        <v>367.1346254901747</v>
+        <v>561.199867241484</v>
       </c>
       <c r="G61" t="n">
-        <v>411.4037068470025</v>
+        <v>581.6600225946376</v>
       </c>
       <c r="H61" t="n">
-        <v>169.2112036336109</v>
+        <v>122.8247610377788</v>
       </c>
       <c r="I61" t="n">
-        <v>123.9167297501892</v>
+        <v>59.69685935366409</v>
       </c>
       <c r="J61" t="n">
-        <v>96.5775927327782</v>
+        <v>50.61720527992718</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="D62" t="n">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="E62" t="n">
-        <v>77.21623199099567</v>
+        <v>244.3886299840549</v>
       </c>
       <c r="F62" t="n">
-        <v>145.5286713725106</v>
+        <v>171.7652759328583</v>
       </c>
       <c r="G62" t="n">
-        <v>246.8991596638655</v>
+        <v>186.4843174318393</v>
       </c>
       <c r="H62" t="n">
-        <v>191.1032412965186</v>
+        <v>120.5761381475667</v>
       </c>
       <c r="I62" t="n">
-        <v>166.0366146458584</v>
+        <v>48.85164835164835</v>
       </c>
       <c r="J62" t="n">
-        <v>135.8571428571429</v>
+        <v>42.81632653061224</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="D63" t="n">
-        <v>289</v>
+        <v>214</v>
       </c>
       <c r="E63" t="n">
-        <v>143.1587490543264</v>
+        <v>194.9062891644335</v>
       </c>
       <c r="F63" t="n">
-        <v>242.4618766023593</v>
+        <v>126.2792388003848</v>
       </c>
       <c r="G63" t="n">
-        <v>219.7657101307258</v>
+        <v>132.9633238815454</v>
       </c>
       <c r="H63" t="n">
-        <v>179.4870565675935</v>
+        <v>135.5879556259905</v>
       </c>
       <c r="I63" t="n">
-        <v>126.4688398849473</v>
+        <v>69.73058637083993</v>
       </c>
       <c r="J63" t="n">
-        <v>131.4065196548418</v>
+        <v>60.12678288431062</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="D64" t="n">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="E64" t="n">
-        <v>12.99747182984437</v>
+        <v>165.8373841558273</v>
       </c>
       <c r="F64" t="n">
-        <v>22.31950989695993</v>
+        <v>157.4156855193883</v>
       </c>
       <c r="G64" t="n">
-        <v>25.17327329575589</v>
+        <v>137.1440984091388</v>
       </c>
       <c r="H64" t="n">
-        <v>143.3082029397819</v>
+        <v>184.8316920322292</v>
       </c>
       <c r="I64" t="n">
-        <v>59.64011379800854</v>
+        <v>151.8724261414503</v>
       </c>
       <c r="J64" t="n">
-        <v>53.35751541014699</v>
+        <v>126.1745747538048</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>324</v>
+        <v>408</v>
       </c>
       <c r="D65" t="n">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="E65" t="n">
-        <v>35.06653690867932</v>
+        <v>46.84512856717981</v>
       </c>
       <c r="F65" t="n">
-        <v>37.15193563443721</v>
+        <v>59.12946801822994</v>
       </c>
       <c r="G65" t="n">
-        <v>33.51913580246914</v>
+        <v>42.62222836025056</v>
       </c>
       <c r="H65" t="n">
-        <v>147.7323671497585</v>
+        <v>128.2278576835731</v>
       </c>
       <c r="I65" t="n">
-        <v>69.3096618357488</v>
+        <v>88.16729750189251</v>
       </c>
       <c r="J65" t="n">
-        <v>66.94444444444444</v>
+        <v>78.97199091597275</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="D66" t="n">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="E66" t="n">
-        <v>30.76177514734386</v>
+        <v>94.33972789572694</v>
       </c>
       <c r="F66" t="n">
-        <v>116.023078102132</v>
+        <v>107.6829373824241</v>
       </c>
       <c r="G66" t="n">
-        <v>142.4060454244294</v>
+        <v>83.288644853534</v>
       </c>
       <c r="H66" t="n">
-        <v>149.4512578616352</v>
+        <v>158.1581967213115</v>
       </c>
       <c r="I66" t="n">
-        <v>76.54559748427673</v>
+        <v>132.8573770491803</v>
       </c>
       <c r="J66" t="n">
-        <v>80.92845911949685</v>
+        <v>109.6483606557377</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>408</v>
+        <v>18</v>
       </c>
       <c r="D67" t="n">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="E67" t="n">
-        <v>132.7530454821221</v>
+        <v>120.06295384235</v>
       </c>
       <c r="F67" t="n">
-        <v>140.9531063698467</v>
+        <v>102.491206821354</v>
       </c>
       <c r="G67" t="n">
-        <v>136.5486987824208</v>
+        <v>134.3437615223384</v>
       </c>
       <c r="H67" t="n">
-        <v>165.3675093632959</v>
+        <v>185.5180802103879</v>
       </c>
       <c r="I67" t="n">
-        <v>136.5318352059925</v>
+        <v>170.7251808021039</v>
       </c>
       <c r="J67" t="n">
-        <v>104.4316479400749</v>
+        <v>140.6436554898093</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>364</v>
+        <v>200</v>
       </c>
       <c r="D68" t="n">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="E68" t="n">
-        <v>126.0563679836145</v>
+        <v>188.844760012834</v>
       </c>
       <c r="F68" t="n">
-        <v>185.2682982117292</v>
+        <v>130.9954848252358</v>
       </c>
       <c r="G68" t="n">
-        <v>142.2516665846032</v>
+        <v>153.1961836758597</v>
       </c>
       <c r="H68" t="n">
-        <v>175.2209237618253</v>
+        <v>141.1865348980852</v>
       </c>
       <c r="I68" t="n">
-        <v>144.6494156928214</v>
+        <v>84.29647930821494</v>
       </c>
       <c r="J68" t="n">
-        <v>129.8569838619922</v>
+        <v>69.15194564546016</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="D69" t="n">
-        <v>327</v>
+        <v>241</v>
       </c>
       <c r="E69" t="n">
-        <v>148.2240097107558</v>
+        <v>210.5428562500792</v>
       </c>
       <c r="F69" t="n">
-        <v>150.3414899603766</v>
+        <v>206.3766441022445</v>
       </c>
       <c r="G69" t="n">
-        <v>157.0348349520369</v>
+        <v>188.4493862863622</v>
       </c>
       <c r="H69" t="n">
-        <v>134.9284151297281</v>
+        <v>138.407133243607</v>
       </c>
       <c r="I69" t="n">
-        <v>91.45920600187559</v>
+        <v>87.94616419919247</v>
       </c>
       <c r="J69" t="n">
-        <v>56.25039074710847</v>
+        <v>74.07873485868102</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D70" t="n">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="E70" t="n">
-        <v>48.97386043422876</v>
+        <v>76.30350970453394</v>
       </c>
       <c r="F70" t="n">
-        <v>85.92516729794146</v>
+        <v>70.46188689981507</v>
       </c>
       <c r="G70" t="n">
-        <v>162.7433663441662</v>
+        <v>81.60352355567534</v>
       </c>
       <c r="H70" t="n">
-        <v>197.2972714217329</v>
+        <v>123.4296998420221</v>
       </c>
       <c r="I70" t="n">
-        <v>171.1536620392532</v>
+        <v>62.18483412322275</v>
       </c>
       <c r="J70" t="n">
-        <v>156.007180469124</v>
+        <v>48.71484992101106</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>115</v>
+        <v>247</v>
       </c>
       <c r="D71" t="n">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="E71" t="n">
-        <v>125.7862878537119</v>
+        <v>84.23886585884354</v>
       </c>
       <c r="F71" t="n">
-        <v>188.3955917889259</v>
+        <v>118.7389682146006</v>
       </c>
       <c r="G71" t="n">
-        <v>194.005261886333</v>
+        <v>96.44535678854876</v>
       </c>
       <c r="H71" t="n">
-        <v>169.4854712969525</v>
+        <v>165.6517857142857</v>
       </c>
       <c r="I71" t="n">
-        <v>136.1934798015592</v>
+        <v>129.6140873015873</v>
       </c>
       <c r="J71" t="n">
-        <v>103.0779588944011</v>
+        <v>109.6755952380952</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>445</v>
+        <v>277</v>
       </c>
       <c r="D72" t="n">
-        <v>323</v>
+        <v>248</v>
       </c>
       <c r="E72" t="n">
-        <v>59.51207123456896</v>
+        <v>91.00096515791276</v>
       </c>
       <c r="F72" t="n">
-        <v>62.11961205041236</v>
+        <v>105.7974109724051</v>
       </c>
       <c r="G72" t="n">
-        <v>61.35792443957577</v>
+        <v>75.09541113345378</v>
       </c>
       <c r="H72" t="n">
-        <v>170.8677385892116</v>
+        <v>190.9339723109691</v>
       </c>
       <c r="I72" t="n">
-        <v>113.3724066390042</v>
+        <v>161.9637912673057</v>
       </c>
       <c r="J72" t="n">
-        <v>97.0990663900415</v>
+        <v>135.8562300319489</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="D73" t="n">
-        <v>345</v>
+        <v>241</v>
       </c>
       <c r="E73" t="n">
-        <v>64.07672802764982</v>
+        <v>66.07474451917199</v>
       </c>
       <c r="F73" t="n">
-        <v>93.00357032359724</v>
+        <v>120.6152488754476</v>
       </c>
       <c r="G73" t="n">
-        <v>78.70179390300709</v>
+        <v>88.65865468599877</v>
       </c>
       <c r="H73" t="n">
-        <v>219.5247002398081</v>
+        <v>145.9953271028037</v>
       </c>
       <c r="I73" t="n">
-        <v>174.0350119904077</v>
+        <v>106.071261682243</v>
       </c>
       <c r="J73" t="n">
-        <v>149.4978417266187</v>
+        <v>90.19392523364486</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>320</v>
+        <v>14</v>
       </c>
       <c r="D74" t="n">
-        <v>329</v>
+        <v>265</v>
       </c>
       <c r="E74" t="n">
-        <v>114.5769181913396</v>
+        <v>49.4323742868425</v>
       </c>
       <c r="F74" t="n">
-        <v>155.9239307545055</v>
+        <v>62.91543807273865</v>
       </c>
       <c r="G74" t="n">
-        <v>142.8276925826545</v>
+        <v>52.06540284037527</v>
       </c>
       <c r="H74" t="n">
-        <v>146.1889994148625</v>
+        <v>171.4538745387454</v>
       </c>
       <c r="I74" t="n">
-        <v>96.00117027501463</v>
+        <v>142.0784132841328</v>
       </c>
       <c r="J74" t="n">
-        <v>87.15389116442364</v>
+        <v>124.0535055350554</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>266</v>
+        <v>56</v>
       </c>
       <c r="D75" t="n">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="E75" t="n">
-        <v>37.22383931462064</v>
+        <v>109.2965777501891</v>
       </c>
       <c r="F75" t="n">
-        <v>80.03527952077341</v>
+        <v>136.7174587022684</v>
       </c>
       <c r="G75" t="n">
-        <v>91.99825071440468</v>
+        <v>107.4777895977</v>
       </c>
       <c r="H75" t="n">
-        <v>142.5129958960328</v>
+        <v>180.8203627852545</v>
       </c>
       <c r="I75" t="n">
-        <v>72.46374829001368</v>
+        <v>166.1655939145699</v>
       </c>
       <c r="J75" t="n">
-        <v>72.66552667578659</v>
+        <v>134.6524283206554</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>223</v>
+        <v>400</v>
       </c>
       <c r="D76" t="n">
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="E76" t="n">
-        <v>22.39048935164055</v>
+        <v>31.48675189087001</v>
       </c>
       <c r="F76" t="n">
-        <v>50.59849467817299</v>
+        <v>23.20261852734686</v>
       </c>
       <c r="G76" t="n">
-        <v>43.57093181379722</v>
+        <v>20.8149641987007</v>
       </c>
       <c r="H76" t="n">
-        <v>191.6252711496746</v>
+        <v>119.6724782067248</v>
       </c>
       <c r="I76" t="n">
-        <v>158.9029284164859</v>
+        <v>75.35429638854296</v>
       </c>
       <c r="J76" t="n">
-        <v>148.5813449023861</v>
+        <v>71.96326276463263</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>259</v>
+        <v>357</v>
       </c>
       <c r="D77" t="n">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="E77" t="n">
-        <v>88.80150506072367</v>
+        <v>30.86086925231418</v>
       </c>
       <c r="F77" t="n">
-        <v>216.1657588647804</v>
+        <v>32.05956392269012</v>
       </c>
       <c r="G77" t="n">
-        <v>178.7109547800663</v>
+        <v>20.3661464932834</v>
       </c>
       <c r="H77" t="n">
-        <v>174.3742591024555</v>
+        <v>128.1113671274962</v>
       </c>
       <c r="I77" t="n">
-        <v>128.6469093988146</v>
+        <v>79.05145929339477</v>
       </c>
       <c r="J77" t="n">
-        <v>128.2184589331075</v>
+        <v>74.01459293394777</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>454</v>
+        <v>134</v>
       </c>
       <c r="D78" t="n">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="E78" t="n">
-        <v>244.59630167347</v>
+        <v>181.6252196609945</v>
       </c>
       <c r="F78" t="n">
-        <v>263.2841863313415</v>
+        <v>184.2996866722418</v>
       </c>
       <c r="G78" t="n">
-        <v>248.516448671955</v>
+        <v>167.4845408394458</v>
       </c>
       <c r="H78" t="n">
-        <v>189.9456928838951</v>
+        <v>181.3579654510557</v>
       </c>
       <c r="I78" t="n">
-        <v>131.2804307116105</v>
+        <v>141.2024952015355</v>
       </c>
       <c r="J78" t="n">
-        <v>117.1465355805243</v>
+        <v>121.7092130518234</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="D79" t="n">
-        <v>367</v>
+        <v>270</v>
       </c>
       <c r="E79" t="n">
-        <v>174.812998152676</v>
+        <v>91.55082571610941</v>
       </c>
       <c r="F79" t="n">
-        <v>158.5663368622288</v>
+        <v>84.29250694360584</v>
       </c>
       <c r="G79" t="n">
-        <v>146.2967978172206</v>
+        <v>78.90669136873443</v>
       </c>
       <c r="H79" t="n">
-        <v>137.2908507223114</v>
+        <v>158.182103610675</v>
       </c>
       <c r="I79" t="n">
-        <v>94.25393258426966</v>
+        <v>128.5549450549451</v>
       </c>
       <c r="J79" t="n">
-        <v>64.88186195826646</v>
+        <v>98.90345368916797</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>364</v>
+        <v>280</v>
       </c>
       <c r="D80" t="n">
-        <v>366</v>
+        <v>279</v>
       </c>
       <c r="E80" t="n">
-        <v>138.3390961792021</v>
+        <v>75.12676901664123</v>
       </c>
       <c r="F80" t="n">
-        <v>193.4316050340439</v>
+        <v>112.3061257177785</v>
       </c>
       <c r="G80" t="n">
-        <v>158.8828517057991</v>
+        <v>69.27304393291959</v>
       </c>
       <c r="H80" t="n">
-        <v>163.9634362797302</v>
+        <v>160.3202170963365</v>
       </c>
       <c r="I80" t="n">
-        <v>135.3943911963081</v>
+        <v>118.3690637720488</v>
       </c>
       <c r="J80" t="n">
-        <v>106.4788782392616</v>
+        <v>103.8683853459973</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>410</v>
+        <v>316</v>
       </c>
       <c r="D81" t="n">
-        <v>367</v>
+        <v>269</v>
       </c>
       <c r="E81" t="n">
-        <v>77.08173993739105</v>
+        <v>59.54242854722465</v>
       </c>
       <c r="F81" t="n">
-        <v>54.07394433745785</v>
+        <v>63.36827910568365</v>
       </c>
       <c r="G81" t="n">
-        <v>63.3704553336003</v>
+        <v>43.64627699435676</v>
       </c>
       <c r="H81" t="n">
-        <v>155.6294021294021</v>
+        <v>135.0794223826715</v>
       </c>
       <c r="I81" t="n">
-        <v>107.9684684684685</v>
+        <v>85.80776173285199</v>
       </c>
       <c r="J81" t="n">
-        <v>88.87633087633088</v>
+        <v>77.32761732851985</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="D82" t="n">
-        <v>361</v>
+        <v>280</v>
       </c>
       <c r="E82" t="n">
-        <v>100.6055316135016</v>
+        <v>174.8445497576279</v>
       </c>
       <c r="F82" t="n">
-        <v>110.0519254248838</v>
+        <v>86.54900000298706</v>
       </c>
       <c r="G82" t="n">
-        <v>126.4922758613619</v>
+        <v>139.263636366105</v>
       </c>
       <c r="H82" t="n">
-        <v>175.690053285968</v>
+        <v>182.2386659718603</v>
       </c>
       <c r="I82" t="n">
-        <v>141.5053285968029</v>
+        <v>162.9843668577384</v>
       </c>
       <c r="J82" t="n">
-        <v>111.4320603907638</v>
+        <v>133.5596664929651</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="D83" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="E83" t="n">
-        <v>111.9386037862034</v>
+        <v>41.31406179630147</v>
       </c>
       <c r="F83" t="n">
-        <v>100.407436945593</v>
+        <v>85.05977575009456</v>
       </c>
       <c r="G83" t="n">
-        <v>112.0868493689276</v>
+        <v>49.67872225189894</v>
       </c>
       <c r="H83" t="n">
-        <v>197.1356932153392</v>
+        <v>178.9759650400583</v>
       </c>
       <c r="I83" t="n">
-        <v>147.1348504003371</v>
+        <v>152.6270939548434</v>
       </c>
       <c r="J83" t="n">
-        <v>123.9039190897598</v>
+        <v>128.8820101966497</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>315</v>
+        <v>159</v>
       </c>
       <c r="D84" t="n">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="E84" t="n">
-        <v>83.37743915794957</v>
+        <v>64.67425913869599</v>
       </c>
       <c r="F84" t="n">
-        <v>89.18997969465016</v>
+        <v>67.60804578993056</v>
       </c>
       <c r="G84" t="n">
-        <v>91.55431095008909</v>
+        <v>67.36419677734375</v>
       </c>
       <c r="H84" t="n">
-        <v>178.5498783454988</v>
+        <v>141.0329861111111</v>
       </c>
       <c r="I84" t="n">
-        <v>144.487104622871</v>
+        <v>116.8697916666667</v>
       </c>
       <c r="J84" t="n">
-        <v>118.0579075425791</v>
+        <v>86.72135416666667</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D85" t="n">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="E85" t="n">
-        <v>55.51131807317329</v>
+        <v>128.6876469390932</v>
       </c>
       <c r="F85" t="n">
-        <v>53.42891301936329</v>
+        <v>134.4305331593252</v>
       </c>
       <c r="G85" t="n">
-        <v>67.18607623380035</v>
+        <v>109.9821525125417</v>
       </c>
       <c r="H85" t="n">
-        <v>162.0292112950341</v>
+        <v>151.3003460207613</v>
       </c>
       <c r="I85" t="n">
-        <v>122.5949367088608</v>
+        <v>132.5702422145329</v>
       </c>
       <c r="J85" t="n">
-        <v>93.17624148003895</v>
+        <v>106.0512110726644</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>275</v>
+        <v>365</v>
       </c>
       <c r="D86" t="n">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="E86" t="n">
-        <v>14.53257950811582</v>
+        <v>28.46132998686432</v>
       </c>
       <c r="F86" t="n">
-        <v>21.33583505076175</v>
+        <v>10.30730718708951</v>
       </c>
       <c r="G86" t="n">
-        <v>51.3918008203223</v>
+        <v>8.42256098705198</v>
       </c>
       <c r="H86" t="n">
-        <v>183.3527808069793</v>
+        <v>123.2787671232877</v>
       </c>
       <c r="I86" t="n">
-        <v>154.1363140676118</v>
+        <v>73.88493150684931</v>
       </c>
       <c r="J86" t="n">
-        <v>116.5736095965104</v>
+        <v>73.9472602739726</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +3380,300 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>230</v>
+        <v>286</v>
       </c>
       <c r="D87" t="n">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="E87" t="n">
-        <v>32.03725645554104</v>
+        <v>44.9236579621041</v>
       </c>
       <c r="F87" t="n">
-        <v>30.90984016386832</v>
+        <v>49.83908849798325</v>
       </c>
       <c r="G87" t="n">
-        <v>46.87466507596652</v>
+        <v>35.41978794286933</v>
       </c>
       <c r="H87" t="n">
-        <v>180.8182730923695</v>
+        <v>146.3188879803761</v>
       </c>
       <c r="I87" t="n">
-        <v>150.7429718875502</v>
+        <v>92.70727718724449</v>
       </c>
       <c r="J87" t="n">
-        <v>115.5828313253012</v>
+        <v>90.0613246116108</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>crop.jpg</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>326</v>
+      </c>
+      <c r="D88" t="n">
+        <v>301</v>
+      </c>
+      <c r="E88" t="n">
+        <v>35.51206406879871</v>
+      </c>
+      <c r="F88" t="n">
+        <v>20.03088030099436</v>
+      </c>
+      <c r="G88" t="n">
+        <v>24.48397140553614</v>
+      </c>
+      <c r="H88" t="n">
+        <v>137.0268852459016</v>
+      </c>
+      <c r="I88" t="n">
+        <v>82.32983606557377</v>
+      </c>
+      <c r="J88" t="n">
+        <v>79.28393442622951</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>crop.jpg</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>47</v>
+      </c>
+      <c r="D89" t="n">
+        <v>304</v>
+      </c>
+      <c r="E89" t="n">
+        <v>63.82811738026381</v>
+      </c>
+      <c r="F89" t="n">
+        <v>86.26110592721815</v>
+      </c>
+      <c r="G89" t="n">
+        <v>67.48458893476658</v>
+      </c>
+      <c r="H89" t="n">
+        <v>165.3303002729754</v>
+      </c>
+      <c r="I89" t="n">
+        <v>135.0063694267516</v>
+      </c>
+      <c r="J89" t="n">
+        <v>114.5686988171065</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>crop.jpg</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>404</v>
+      </c>
+      <c r="D90" t="n">
+        <v>301</v>
+      </c>
+      <c r="E90" t="n">
+        <v>21.49382602408351</v>
+      </c>
+      <c r="F90" t="n">
+        <v>19.94044700634901</v>
+      </c>
+      <c r="G90" t="n">
+        <v>19.43809665074326</v>
+      </c>
+      <c r="H90" t="n">
+        <v>111.2133977900553</v>
+      </c>
+      <c r="I90" t="n">
+        <v>72.43439226519337</v>
+      </c>
+      <c r="J90" t="n">
+        <v>67.37223756906077</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>crop.jpg</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>15</v>
+      </c>
+      <c r="D91" t="n">
+        <v>300</v>
+      </c>
+      <c r="E91" t="n">
+        <v>44.35720809319717</v>
+      </c>
+      <c r="F91" t="n">
+        <v>46.05539451043715</v>
+      </c>
+      <c r="G91" t="n">
+        <v>45.40352896378561</v>
+      </c>
+      <c r="H91" t="n">
+        <v>170.4331641285956</v>
+      </c>
+      <c r="I91" t="n">
+        <v>132.6539763113367</v>
+      </c>
+      <c r="J91" t="n">
+        <v>117.4788494077834</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>crop.jpg</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>179</v>
+      </c>
+      <c r="D92" t="n">
+        <v>303</v>
+      </c>
+      <c r="E92" t="n">
+        <v>81.94267027393269</v>
+      </c>
+      <c r="F92" t="n">
+        <v>69.04737148718988</v>
+      </c>
+      <c r="G92" t="n">
+        <v>76.92426878458987</v>
+      </c>
+      <c r="H92" t="n">
+        <v>158.9083629893238</v>
+      </c>
+      <c r="I92" t="n">
+        <v>137.6832740213523</v>
+      </c>
+      <c r="J92" t="n">
+        <v>112.8158362989324</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>crop.jpg</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>80</v>
+      </c>
+      <c r="D93" t="n">
+        <v>306</v>
+      </c>
+      <c r="E93" t="n">
+        <v>105.013748597082</v>
+      </c>
+      <c r="F93" t="n">
+        <v>116.7053616977859</v>
+      </c>
+      <c r="G93" t="n">
+        <v>86.57525858330781</v>
+      </c>
+      <c r="H93" t="n">
+        <v>168.2222222222222</v>
+      </c>
+      <c r="I93" t="n">
+        <v>148.2171717171717</v>
+      </c>
+      <c r="J93" t="n">
+        <v>123.4255050505051</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>crop.jpg</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>247</v>
+      </c>
+      <c r="D94" t="n">
+        <v>308</v>
+      </c>
+      <c r="E94" t="n">
+        <v>69.43223174191421</v>
+      </c>
+      <c r="F94" t="n">
+        <v>92.1329552606045</v>
+      </c>
+      <c r="G94" t="n">
+        <v>81.16008472541664</v>
+      </c>
+      <c r="H94" t="n">
+        <v>136.5113230035757</v>
+      </c>
+      <c r="I94" t="n">
+        <v>91.85578069129916</v>
+      </c>
+      <c r="J94" t="n">
+        <v>82.58760429082241</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>crop.jpg</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>212</v>
+      </c>
+      <c r="D95" t="n">
+        <v>307</v>
+      </c>
+      <c r="E95" t="n">
+        <v>128.5897300364456</v>
+      </c>
+      <c r="F95" t="n">
+        <v>114.5921911873041</v>
+      </c>
+      <c r="G95" t="n">
+        <v>89.99632353451229</v>
+      </c>
+      <c r="H95" t="n">
+        <v>155.5429917550059</v>
+      </c>
+      <c r="I95" t="n">
+        <v>126.2685512367491</v>
+      </c>
+      <c r="J95" t="n">
+        <v>112.4369846878681</v>
       </c>
     </row>
   </sheetData>
